--- a/thresholds/IGCSE/economics-9-1/economics-9-1-thresholds.xlsx
+++ b/thresholds/IGCSE/economics-9-1/economics-9-1-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>date</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -536,6 +541,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>economics-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -578,6 +588,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>economics-9-1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,6 +635,242 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>economics-9-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>X 11,21</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>150</v>
+      </c>
+      <c r="C5" t="n">
+        <v>110</v>
+      </c>
+      <c r="D5" t="n">
+        <v>102</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>86</v>
+      </c>
+      <c r="G5" t="n">
+        <v>77</v>
+      </c>
+      <c r="H5" t="n">
+        <v>68</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54</v>
+      </c>
+      <c r="J5" t="n">
+        <v>41</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>June 2023</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>economics-9-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Y 12,22</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>150</v>
+      </c>
+      <c r="C6" t="n">
+        <v>126</v>
+      </c>
+      <c r="D6" t="n">
+        <v>116</v>
+      </c>
+      <c r="E6" t="n">
+        <v>106</v>
+      </c>
+      <c r="F6" t="n">
+        <v>93</v>
+      </c>
+      <c r="G6" t="n">
+        <v>80</v>
+      </c>
+      <c r="H6" t="n">
+        <v>68</v>
+      </c>
+      <c r="I6" t="n">
+        <v>54</v>
+      </c>
+      <c r="J6" t="n">
+        <v>40</v>
+      </c>
+      <c r="K6" t="n">
+        <v>27</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>June 2023</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>economics-9-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>X 11,21</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>150</v>
+      </c>
+      <c r="C7" t="n">
+        <v>112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>104</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97</v>
+      </c>
+      <c r="F7" t="n">
+        <v>87</v>
+      </c>
+      <c r="G7" t="n">
+        <v>77</v>
+      </c>
+      <c r="H7" t="n">
+        <v>67</v>
+      </c>
+      <c r="I7" t="n">
+        <v>53</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40</v>
+      </c>
+      <c r="K7" t="n">
+        <v>27</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>economics-9-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Y 12,22</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>150</v>
+      </c>
+      <c r="C8" t="n">
+        <v>120</v>
+      </c>
+      <c r="D8" t="n">
+        <v>111</v>
+      </c>
+      <c r="E8" t="n">
+        <v>103</v>
+      </c>
+      <c r="F8" t="n">
+        <v>90</v>
+      </c>
+      <c r="G8" t="n">
+        <v>78</v>
+      </c>
+      <c r="H8" t="n">
+        <v>66</v>
+      </c>
+      <c r="I8" t="n">
+        <v>52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>39</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>economics-9-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Y 12,22</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>150</v>
+      </c>
+      <c r="C9" t="n">
+        <v>132</v>
+      </c>
+      <c r="D9" t="n">
+        <v>119</v>
+      </c>
+      <c r="E9" t="n">
+        <v>107</v>
+      </c>
+      <c r="F9" t="n">
+        <v>95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>84</v>
+      </c>
+      <c r="H9" t="n">
+        <v>73</v>
+      </c>
+      <c r="I9" t="n">
+        <v>59</v>
+      </c>
+      <c r="J9" t="n">
+        <v>45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>31</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/economics-9-1/economics-9-1-thresholds.xlsx
+++ b/thresholds/IGCSE/economics-9-1/economics-9-1-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -533,17 +528,14 @@
       <c r="J2" t="n">
         <v>33</v>
       </c>
-      <c r="K2" t="n">
-        <v>18</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>economics-9-1</t>
         </is>
       </c>
     </row>
@@ -580,17 +572,14 @@
       <c r="J3" t="n">
         <v>31</v>
       </c>
-      <c r="K3" t="n">
-        <v>18</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>economics-9-1</t>
         </is>
       </c>
     </row>
@@ -627,17 +616,14 @@
       <c r="J4" t="n">
         <v>34</v>
       </c>
-      <c r="K4" t="n">
-        <v>20</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>economics-9-1</t>
         </is>
       </c>
     </row>
@@ -674,17 +660,14 @@
       <c r="J5" t="n">
         <v>41</v>
       </c>
-      <c r="K5" t="n">
-        <v>28</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>economics-9-1</t>
         </is>
       </c>
     </row>
@@ -721,17 +704,14 @@
       <c r="J6" t="n">
         <v>40</v>
       </c>
-      <c r="K6" t="n">
-        <v>27</v>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>economics-9-1</t>
         </is>
       </c>
     </row>
@@ -768,17 +748,14 @@
       <c r="J7" t="n">
         <v>40</v>
       </c>
-      <c r="K7" t="n">
-        <v>27</v>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>economics-9-1</t>
         </is>
       </c>
     </row>
@@ -815,17 +792,14 @@
       <c r="J8" t="n">
         <v>39</v>
       </c>
-      <c r="K8" t="n">
-        <v>26</v>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>economics-9-1</t>
         </is>
       </c>
     </row>
@@ -862,15 +836,16 @@
       <c r="J9" t="n">
         <v>45</v>
       </c>
-      <c r="K9" t="n">
-        <v>31</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
